--- a/Liturgy&OriginalTranscription.xlsx
+++ b/Liturgy&OriginalTranscription.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\Cholti_Project\CholtiProject\Cholti-Chorti_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943596F2-86F6-4168-B260-C21D7DA62E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E0C3C-B99A-474F-B8E4-87381DDA4E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="2609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="2690">
   <si>
     <t>Pregunta/Respuesta</t>
   </si>
@@ -7847,6 +7847,249 @@
   </si>
   <si>
     <t xml:space="preserve">Uno </t>
+  </si>
+  <si>
+    <t>Estos son los misterios alegres</t>
+  </si>
+  <si>
+    <t>El Segundo: la llegada de nuestra madre, Santa María, para estar con Santa Isabel, quien dio testimonio de ella.</t>
+  </si>
+  <si>
+    <t>La venida de los pastores y también la venida de los tres sabios que dieron testimonio de ti (pl.).</t>
+  </si>
+  <si>
+    <t>Estos son los misterios tristes</t>
+  </si>
+  <si>
+    <t>Esta es el primero: la llegada de nuestro Señor Jesucristo a la cima del cerro.</t>
+  </si>
+  <si>
+    <t>Rezaba a Dios su padre, mientras sudaba sangre.</t>
+  </si>
+  <si>
+    <t>Luego fue herido por sus enemigos.</t>
+  </si>
+  <si>
+    <t>Fue llevado ante los jueces Anás, Caifás y Pilato.</t>
+  </si>
+  <si>
+    <t>El Segundo: Sus pies y manos fueron azotados.</t>
+  </si>
+  <si>
+    <t>Fue maldecido por ellos</t>
+  </si>
+  <si>
+    <t>También fue golpeado y azotado.</t>
+  </si>
+  <si>
+    <t>El Cuarto: Llevaba la cruz sobre sus hombros.</t>
+  </si>
+  <si>
+    <t>Se cansó en el camino y su madre lo vio mientras sufría.</t>
+  </si>
+  <si>
+    <t>Y así, oh madre querida nuestra,</t>
+  </si>
+  <si>
+    <t>Estos son los gloriosos misterios.</t>
+  </si>
+  <si>
+    <t>La Primera: la resurrección de nuestro Señor Jesucristo de entre los muertos.</t>
+  </si>
+  <si>
+    <t>El Segundo: su ascensión al cielo al cuadragésimo día.</t>
+  </si>
+  <si>
+    <t>El tercero: el descenso del Espíritu Santo sobre las cabezas de los apóstoles.</t>
+  </si>
+  <si>
+    <t>La Cuarta: la ascensión de nuestra madre, Santa María, al cielo con su pequeño hijo.</t>
+  </si>
+  <si>
+    <t>La Quinta: la coronación de nuestra madre Santa María y la glorificación de todos los ángeles.</t>
+  </si>
+  <si>
+    <t>Oh, madre nuestra, Santa María.</t>
+  </si>
+  <si>
+    <t>Que intercedas siempre por mí ante tu amado hijo Jesucristo.</t>
+  </si>
+  <si>
+    <t>Tienes gran alegría y felicidad en el cielo.</t>
+  </si>
+  <si>
+    <t>Llena de gracia(feminine)</t>
+  </si>
+  <si>
+    <t>Ave Maria.</t>
+  </si>
+  <si>
+    <t>Dios esta contigo.</t>
+  </si>
+  <si>
+    <t>Bendita eres entre las mujeres,</t>
+  </si>
+  <si>
+    <t>y bendito es el fruto de tu vientre, Jesús.</t>
+  </si>
+  <si>
+    <t>Santa María, Virgen Eterna,</t>
+  </si>
+  <si>
+    <t>Madre de Dios,</t>
+  </si>
+  <si>
+    <t>Ruega a Dios por nosotros los pecadores.</t>
+  </si>
+  <si>
+    <t>Que así sea.</t>
+  </si>
+  <si>
+    <t>Padre nuestro que estás en los cielos;</t>
+  </si>
+  <si>
+    <t>Santificado sea tu nombre;</t>
+  </si>
+  <si>
+    <t>venga tu reino;</t>
+  </si>
+  <si>
+    <t>Hágase tu voluntad en la tierra como en el cielo.</t>
+  </si>
+  <si>
+    <t>Danos hoy nuestro pan de cada día;</t>
+  </si>
+  <si>
+    <t>Y perdónanos nuestras ofensas, como también nosotros perdonamos a los que nos ofenden.</t>
+  </si>
+  <si>
+    <t>No nos dejes caer en la tentación.</t>
+  </si>
+  <si>
+    <t>Líbranos de todo mal.</t>
+  </si>
+  <si>
+    <t>Amén Jesús. Jesús, María y José</t>
+  </si>
+  <si>
+    <t>arrodillate hijo mio.</t>
+  </si>
+  <si>
+    <t>Junta tus manos.</t>
+  </si>
+  <si>
+    <t>persignate.</t>
+  </si>
+  <si>
+    <t>Sabes nuestra ensenanza, la doctrina?</t>
+  </si>
+  <si>
+    <t>di la confesion.</t>
+  </si>
+  <si>
+    <t>eres casado?</t>
+  </si>
+  <si>
+    <t>tienes marido?</t>
+  </si>
+  <si>
+    <t>Que quieres aora que as benido delante de mi?</t>
+  </si>
+  <si>
+    <t>querria confesarme.</t>
+  </si>
+  <si>
+    <t>Salete de tu corason el confesarte?</t>
+  </si>
+  <si>
+    <t>De que te sirbe el confesarte</t>
+  </si>
+  <si>
+    <t>el perdon de mis pecados.</t>
+  </si>
+  <si>
+    <t>quando te confesaste?</t>
+  </si>
+  <si>
+    <t>absoluiote el Pe.?</t>
+  </si>
+  <si>
+    <t>di todos tus pecados.</t>
+  </si>
+  <si>
+    <t>digiste todos tus pecados quando te confesaste?</t>
+  </si>
+  <si>
+    <t>encubriste algun pecado de miedo o de berguensa?</t>
+  </si>
+  <si>
+    <t>cumpliste la penitensia que te dio el Pe.?</t>
+  </si>
+  <si>
+    <t>traes pensados todos tus pecados?</t>
+  </si>
+  <si>
+    <t>quando los pensastes?</t>
+  </si>
+  <si>
+    <t>as dicho todos tus pecados delante de Dios?</t>
+  </si>
+  <si>
+    <t>as pedido a Dios perdon de tus pecados?</t>
+  </si>
+  <si>
+    <t>aborreses todos tus pecados?</t>
+  </si>
+  <si>
+    <t>dejas todos tus pecados?</t>
+  </si>
+  <si>
+    <t>Bendita hija mía/o</t>
+  </si>
+  <si>
+    <t>Ahora vuelve tu corazón a Dios.</t>
+  </si>
+  <si>
+    <t>Haz tu penitencia. Haz tu confesión.</t>
+  </si>
+  <si>
+    <t>Por eso repudiarás una vez más en tu corazón todos tus pecados.</t>
+  </si>
+  <si>
+    <t>Una vez más, vuestro corazón llorará a causa de vuestros pecados.</t>
+  </si>
+  <si>
+    <t>¿No quieres dejar de pecar delante de Dios?</t>
+  </si>
+  <si>
+    <t>y dejar de quebrantar los mandamientos del mismo Dios?</t>
+  </si>
+  <si>
+    <t>Una vez más debes recordar esos pecados ante Dios, así como ante el Sacerdote, su representante,</t>
+  </si>
+  <si>
+    <t>Éste es el propósito de la confesión.</t>
+  </si>
+  <si>
+    <t>para que no sea en vano dar vuestra confesión a Dios.</t>
+  </si>
+  <si>
+    <t>porque la confesión es algo grande y precioso.</t>
+  </si>
+  <si>
+    <t>El amor de Dios por ti también es grande.</t>
+  </si>
+  <si>
+    <t>Él te protege y vela por ti.</t>
+  </si>
+  <si>
+    <t>Agradécele por velar por ti, por protegerte, incluso con todos tus pecados, y también por haberte confesado.</t>
+  </si>
+  <si>
+    <t>De este modo, hay un don más: el santo sacramento.</t>
+  </si>
+  <si>
+    <t>Deberíais clamar, deberíais orar por vuestros pecados.</t>
   </si>
 </sst>
 </file>
@@ -8211,8 +8454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J445" sqref="J445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17290,6 +17533,9 @@
       <c r="I334" t="s">
         <v>1540</v>
       </c>
+      <c r="J334" t="s">
+        <v>2609</v>
+      </c>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B335">
@@ -17391,6 +17637,9 @@
       <c r="I338" t="s">
         <v>1559</v>
       </c>
+      <c r="J338" t="s">
+        <v>2610</v>
+      </c>
     </row>
     <row r="339" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B339">
@@ -17440,6 +17689,9 @@
       <c r="I340" t="s">
         <v>1570</v>
       </c>
+      <c r="J340" t="s">
+        <v>2611</v>
+      </c>
     </row>
     <row r="341" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B341">
@@ -17697,6 +17949,9 @@
       <c r="I350" t="s">
         <v>1618</v>
       </c>
+      <c r="J350" t="s">
+        <v>2612</v>
+      </c>
     </row>
     <row r="351" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B351">
@@ -17720,6 +17975,9 @@
       <c r="I351" t="s">
         <v>1623</v>
       </c>
+      <c r="J351" t="s">
+        <v>2613</v>
+      </c>
     </row>
     <row r="352" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B352">
@@ -17743,6 +18001,9 @@
       <c r="I352" t="s">
         <v>1628</v>
       </c>
+      <c r="J352" t="s">
+        <v>2614</v>
+      </c>
     </row>
     <row r="353" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B353">
@@ -17766,6 +18027,9 @@
       <c r="I353" t="s">
         <v>1633</v>
       </c>
+      <c r="J353" t="s">
+        <v>2615</v>
+      </c>
     </row>
     <row r="354" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B354">
@@ -17789,6 +18053,9 @@
       <c r="I354" t="s">
         <v>1638</v>
       </c>
+      <c r="J354" t="s">
+        <v>2616</v>
+      </c>
     </row>
     <row r="355" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B355">
@@ -17812,6 +18079,9 @@
       <c r="I355" t="s">
         <v>1643</v>
       </c>
+      <c r="J355" t="s">
+        <v>2617</v>
+      </c>
     </row>
     <row r="356" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B356">
@@ -17835,6 +18105,9 @@
       <c r="I356" t="s">
         <v>1648</v>
       </c>
+      <c r="J356" t="s">
+        <v>2618</v>
+      </c>
     </row>
     <row r="357" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B357">
@@ -17858,6 +18131,9 @@
       <c r="I357" t="s">
         <v>1653</v>
       </c>
+      <c r="J357" t="s">
+        <v>2619</v>
+      </c>
     </row>
     <row r="358" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B358">
@@ -17907,6 +18183,9 @@
       <c r="I359" t="s">
         <v>1664</v>
       </c>
+      <c r="J359" t="s">
+        <v>2620</v>
+      </c>
     </row>
     <row r="360" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B360">
@@ -17930,6 +18209,9 @@
       <c r="I360" t="s">
         <v>1669</v>
       </c>
+      <c r="J360" t="s">
+        <v>2621</v>
+      </c>
     </row>
     <row r="361" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B361">
@@ -17979,6 +18261,9 @@
       <c r="I362" t="s">
         <v>1680</v>
       </c>
+      <c r="J362" t="s">
+        <v>2622</v>
+      </c>
     </row>
     <row r="363" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B363">
@@ -18028,6 +18313,9 @@
       <c r="I364" t="s">
         <v>1691</v>
       </c>
+      <c r="J364" t="s">
+        <v>2623</v>
+      </c>
     </row>
     <row r="365" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B365">
@@ -18051,6 +18339,9 @@
       <c r="I365" t="s">
         <v>1696</v>
       </c>
+      <c r="J365" t="s">
+        <v>2624</v>
+      </c>
     </row>
     <row r="366" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B366">
@@ -18074,6 +18365,9 @@
       <c r="I366" t="s">
         <v>1701</v>
       </c>
+      <c r="J366" t="s">
+        <v>2625</v>
+      </c>
     </row>
     <row r="367" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B367">
@@ -18097,6 +18391,9 @@
       <c r="I367" t="s">
         <v>1706</v>
       </c>
+      <c r="J367" t="s">
+        <v>2626</v>
+      </c>
     </row>
     <row r="368" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B368">
@@ -18120,8 +18417,11 @@
       <c r="I368" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J368" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B369">
         <v>368</v>
       </c>
@@ -18143,8 +18443,11 @@
       <c r="I369" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J369" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="370" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B370">
         <v>369</v>
       </c>
@@ -18166,8 +18469,11 @@
       <c r="I370" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="371" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J370" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="371" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B371">
         <v>370</v>
       </c>
@@ -18189,8 +18495,11 @@
       <c r="I371" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J371" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="372" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B372">
         <v>371</v>
       </c>
@@ -18212,8 +18521,11 @@
       <c r="I372" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J372" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="373" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B373">
         <v>372</v>
       </c>
@@ -18235,8 +18547,11 @@
       <c r="I373" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J373" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="374" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B374">
         <v>373</v>
       </c>
@@ -18261,8 +18576,11 @@
       <c r="I374" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J374" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="375" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B375">
         <v>374</v>
       </c>
@@ -18284,8 +18602,11 @@
       <c r="I375" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J375" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B376">
         <v>375</v>
       </c>
@@ -18307,8 +18628,11 @@
       <c r="I376" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J376" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="377" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B377">
         <v>376</v>
       </c>
@@ -18330,8 +18654,11 @@
       <c r="I377" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J377" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="378" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B378">
         <v>377</v>
       </c>
@@ -18353,8 +18680,11 @@
       <c r="I378" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J378" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="379" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B379">
         <v>378</v>
       </c>
@@ -18376,8 +18706,11 @@
       <c r="I379" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J379" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="380" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B380">
         <v>379</v>
       </c>
@@ -18399,8 +18732,11 @@
       <c r="I380" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J380" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="381" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B381">
         <v>380</v>
       </c>
@@ -18422,8 +18758,11 @@
       <c r="I381" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="382" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J381" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="382" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B382">
         <v>381</v>
       </c>
@@ -18445,8 +18784,11 @@
       <c r="I382" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J382" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="383" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B383">
         <v>382</v>
       </c>
@@ -18468,8 +18810,11 @@
       <c r="I383" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J383" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B384">
         <v>383</v>
       </c>
@@ -18494,8 +18839,11 @@
       <c r="I384" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="385" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J384" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="385" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B385">
         <v>384</v>
       </c>
@@ -18517,8 +18865,11 @@
       <c r="I385" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="386" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J385" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="386" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B386">
         <v>385</v>
       </c>
@@ -18540,8 +18891,11 @@
       <c r="I386" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="387" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J386" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="387" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B387">
         <v>386</v>
       </c>
@@ -18563,8 +18917,11 @@
       <c r="I387" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="388" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J387" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="388" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B388">
         <v>387</v>
       </c>
@@ -18586,8 +18943,11 @@
       <c r="I388" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="389" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J388" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="389" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B389">
         <v>388</v>
       </c>
@@ -18609,8 +18969,11 @@
       <c r="I389" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="390" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J389" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="390" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B390">
         <v>389</v>
       </c>
@@ -18632,8 +18995,11 @@
       <c r="I390" t="s">
         <v>1807</v>
       </c>
-    </row>
-    <row r="391" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J390" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="391" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B391">
         <v>390</v>
       </c>
@@ -18655,8 +19021,11 @@
       <c r="I391" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="392" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J391" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="392" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B392">
         <v>391</v>
       </c>
@@ -18678,8 +19047,11 @@
       <c r="I392" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="393" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J392" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="393" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B393">
         <v>392</v>
       </c>
@@ -18704,8 +19076,11 @@
       <c r="I393" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="394" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J393" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="394" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B394">
         <v>393</v>
       </c>
@@ -18727,8 +19102,11 @@
       <c r="I394" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="395" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J394" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="395" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B395">
         <v>394</v>
       </c>
@@ -18747,8 +19125,11 @@
       <c r="I395" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="396" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J395" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="396" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B396">
         <v>395</v>
       </c>
@@ -18770,8 +19151,11 @@
       <c r="I396" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="397" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J396" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="397" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B397">
         <v>396</v>
       </c>
@@ -18793,8 +19177,11 @@
       <c r="I397" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="398" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J397" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="398" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B398">
         <v>397</v>
       </c>
@@ -18816,8 +19203,11 @@
       <c r="I398" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="399" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J398" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="399" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B399">
         <v>398</v>
       </c>
@@ -18839,8 +19229,11 @@
       <c r="I399" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="400" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J399" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="400" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B400">
         <v>399</v>
       </c>
@@ -18862,8 +19255,11 @@
       <c r="I400" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="401" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J400" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="401" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B401">
         <v>400</v>
       </c>
@@ -18885,8 +19281,11 @@
       <c r="I401" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="402" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J401" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="402" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B402">
         <v>401</v>
       </c>
@@ -18908,8 +19307,11 @@
       <c r="I402" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="403" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J402" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="403" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B403">
         <v>402</v>
       </c>
@@ -18931,8 +19333,11 @@
       <c r="I403" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="404" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J403" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="404" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B404">
         <v>403</v>
       </c>
@@ -18954,8 +19359,11 @@
       <c r="I404" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="405" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J404" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="405" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B405">
         <v>404</v>
       </c>
@@ -18977,8 +19385,11 @@
       <c r="I405" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="406" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J405" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="406" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B406">
         <v>405</v>
       </c>
@@ -19000,8 +19411,11 @@
       <c r="I406" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="407" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J406" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="407" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B407">
         <v>406</v>
       </c>
@@ -19023,8 +19437,11 @@
       <c r="I407" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="408" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J407" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="408" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B408">
         <v>407</v>
       </c>
@@ -19046,8 +19463,11 @@
       <c r="I408" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="409" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J408" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="409" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B409">
         <v>408</v>
       </c>
@@ -19069,8 +19489,11 @@
       <c r="I409" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="410" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J409" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="410" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B410">
         <v>409</v>
       </c>
@@ -19092,8 +19515,11 @@
       <c r="I410" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="411" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J410" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="411" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B411">
         <v>410</v>
       </c>
@@ -19115,8 +19541,11 @@
       <c r="I411" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="412" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J411" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="412" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B412">
         <v>411</v>
       </c>
@@ -19138,8 +19567,11 @@
       <c r="I412" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="413" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J412" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="413" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B413">
         <v>412</v>
       </c>
@@ -19161,8 +19593,11 @@
       <c r="I413" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="414" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J413" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="414" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B414">
         <v>413</v>
       </c>
@@ -19184,8 +19619,11 @@
       <c r="I414" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="415" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J414" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="415" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B415">
         <v>414</v>
       </c>
@@ -19207,8 +19645,11 @@
       <c r="I415" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="416" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J415" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="416" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B416">
         <v>415</v>
       </c>
@@ -19229,6 +19670,9 @@
       </c>
       <c r="I416" t="s">
         <v>1933</v>
+      </c>
+      <c r="J416" t="s">
+        <v>2673</v>
       </c>
     </row>
     <row r="417" spans="2:10" x14ac:dyDescent="0.35">
@@ -19253,6 +19697,9 @@
       <c r="I417" t="s">
         <v>1938</v>
       </c>
+      <c r="J417" t="s">
+        <v>2674</v>
+      </c>
     </row>
     <row r="418" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B418">
@@ -19276,6 +19723,9 @@
       <c r="I418" t="s">
         <v>1943</v>
       </c>
+      <c r="J418" t="s">
+        <v>2675</v>
+      </c>
     </row>
     <row r="419" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B419">
@@ -19299,6 +19749,9 @@
       <c r="I419" t="s">
         <v>1948</v>
       </c>
+      <c r="J419" t="s">
+        <v>2676</v>
+      </c>
     </row>
     <row r="420" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B420">
@@ -19322,6 +19775,9 @@
       <c r="I420" t="s">
         <v>1953</v>
       </c>
+      <c r="J420" t="s">
+        <v>2677</v>
+      </c>
     </row>
     <row r="421" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B421">
@@ -19371,6 +19827,9 @@
       <c r="I422" t="s">
         <v>1964</v>
       </c>
+      <c r="J422" t="s">
+        <v>2678</v>
+      </c>
     </row>
     <row r="423" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B423">
@@ -19420,6 +19879,9 @@
       <c r="I424" t="s">
         <v>1975</v>
       </c>
+      <c r="J424" t="s">
+        <v>2679</v>
+      </c>
     </row>
     <row r="425" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B425">
@@ -19443,6 +19905,9 @@
       <c r="I425" t="s">
         <v>1980</v>
       </c>
+      <c r="J425" t="s">
+        <v>2680</v>
+      </c>
     </row>
     <row r="426" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B426">
@@ -19492,6 +19957,9 @@
       <c r="I427" t="s">
         <v>1991</v>
       </c>
+      <c r="J427" t="s">
+        <v>2681</v>
+      </c>
     </row>
     <row r="428" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B428">
@@ -19567,6 +20035,9 @@
       <c r="I430" t="s">
         <v>2008</v>
       </c>
+      <c r="J430" t="s">
+        <v>2682</v>
+      </c>
     </row>
     <row r="431" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B431">
@@ -19642,6 +20113,9 @@
       <c r="I433" t="s">
         <v>2025</v>
       </c>
+      <c r="J433" t="s">
+        <v>2683</v>
+      </c>
     </row>
     <row r="434" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B434">
@@ -19665,6 +20139,9 @@
       <c r="I434" t="s">
         <v>2030</v>
       </c>
+      <c r="J434" t="s">
+        <v>2684</v>
+      </c>
     </row>
     <row r="435" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B435">
@@ -19688,6 +20165,9 @@
       <c r="I435" t="s">
         <v>2035</v>
       </c>
+      <c r="J435" t="s">
+        <v>2685</v>
+      </c>
     </row>
     <row r="436" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B436">
@@ -19711,6 +20191,9 @@
       <c r="I436" t="s">
         <v>2040</v>
       </c>
+      <c r="J436" t="s">
+        <v>2686</v>
+      </c>
     </row>
     <row r="437" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B437">
@@ -19786,6 +20269,9 @@
       <c r="I439" t="s">
         <v>2056</v>
       </c>
+      <c r="J439" t="s">
+        <v>2687</v>
+      </c>
     </row>
     <row r="440" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B440">
@@ -19809,6 +20295,9 @@
       <c r="I440" t="s">
         <v>2061</v>
       </c>
+      <c r="J440" t="s">
+        <v>2688</v>
+      </c>
     </row>
     <row r="441" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B441">
@@ -19884,6 +20373,9 @@
       <c r="I443" t="s">
         <v>2078</v>
       </c>
+      <c r="J443" t="s">
+        <v>2689</v>
+      </c>
     </row>
     <row r="444" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B444">
@@ -22193,5 +22685,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>